--- a/data/San Ramón.xlsx
+++ b/data/San Ramón.xlsx
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,11 +2407,11 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2420,12 +2420,12 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,11 +2455,11 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2468,12 +2468,12 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5156,12 +5156,12 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5204,12 +5204,12 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">

--- a/data/San Ramón.xlsx
+++ b/data/San Ramón.xlsx
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,11 +2407,11 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2420,12 +2420,12 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,11 +2455,11 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2468,12 +2468,12 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5156,12 +5156,12 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5204,12 +5204,12 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">

--- a/data/San Ramón.xlsx
+++ b/data/San Ramón.xlsx
@@ -3319,7 +3319,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>gasmar s.a.</t>
+          <t>Gasmar SpA.</t>
         </is>
       </c>
       <c r="F62" t="n">

--- a/data/San Ramón.xlsx
+++ b/data/San Ramón.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J115"/>
+  <dimension ref="A1:J116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,12 +424,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Almazara Santa Rosa 6669</t>
+          <t>LÍNEA 9 METRO DE SANTIAGO</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Almazara Santa Rosa SpA</t>
+          <t>EMPRESA DE TRANSPORTE DE PASAJEROS METRO S.A.</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>40815</v>
+        <v>1.9461</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>20/12/2019</t>
+          <t>31/10/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145201087&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160253047&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
+          <t>Almazara Santa Rosa 6669</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -482,20 +482,20 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Almazara Santa Rosa SpA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>10000</v>
+        <v>40815</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>22/08/2016</t>
+          <t>20/12/2019</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145201087&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,15 +535,15 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>22/08/2016</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,25 +583,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -639,17 +639,17 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -687,7 +687,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,15 +727,15 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>KDM SERVICIOS S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>5000</v>
+        <v>250</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>16/05/2012</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,25 +775,25 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>KDM SERVICIOS S.A.</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>16/05/2012</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -818,30 +818,30 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>12/04/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -866,30 +866,30 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>27/03/2012</t>
+          <t>12/04/2012</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,15 +919,15 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>27/03/2012</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>PLANTA DE RECICLAJE DE RECIDUOS ELECTRONICOS, METALICOS Y PLASTICOS</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -962,30 +962,30 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>13/02/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601327&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>PLANTA DE RECICLAJE DE RECIDUOS ELECTRONICOS, METALICOS Y PLASTICOS</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1023,7 +1023,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>18/01/2012</t>
+          <t>13/02/2012</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6508245&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601327&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1058,30 +1058,30 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>18/01/2012</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6508245&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,15 +1111,15 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1154,20 +1154,20 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>22/11/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6293869&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1215,7 +1215,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>09/11/2011</t>
+          <t>22/11/2011</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6293869&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1250,20 +1250,20 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Transportes Alcayaga y Rovira Ltda.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>08/11/2011</t>
+          <t>09/11/2011</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6183206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Transportes Alcayaga y Rovira Ltda.</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -1311,7 +1311,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>08/11/2011</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6183206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1359,7 +1359,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>12/05/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Transporte terrestre de Cianuro de Sodio entre la II y VI región</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,25 +1399,25 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Portland S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>26/08/2010</t>
+          <t>12/05/2011</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4877350&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>Transporte terrestre de Cianuro de Sodio entre la II y VI región</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,25 +1447,25 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Portland S.A.</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1750</v>
+        <v>20</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>11/08/2010</t>
+          <t>26/08/2010</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4877350&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Transporte Terrestrede Cianuro de Sodio entre la II y VI Región</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,15 +1495,15 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Portland S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1000</v>
+        <v>1750</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>02/08/2010</t>
+          <t>11/08/2010</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4806107&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS POR LAS RUTAS INDICADAS</t>
+          <t>Transporte Terrestrede Cianuro de Sodio entre la II y VI Región</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,25 +1543,25 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Servicios de Movimientos de Tierra, Ingeniería y Construcción Ltda. SEMINCO</t>
+          <t>Portland S.A.</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>06/07/2010</t>
+          <t>02/08/2010</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4726790&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4806107&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS POR LAS RUTAS INDICADAS</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,25 +1591,25 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Servicios de Movimientos de Tierra, Ingeniería y Construcción Ltda. SEMINCO</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1750</v>
+        <v>900</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>07/06/2010</t>
+          <t>06/07/2010</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4726790&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,25 +1639,25 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>250</v>
+        <v>1750</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>26/04/2010</t>
+          <t>07/06/2010</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,25 +1687,25 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>26/04/2010</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,25 +1735,25 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,15 +1783,15 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Transportes TREPE Ltda.</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>350</v>
+        <v>1350</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>08/01/2010</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,25 +1831,25 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Transportes TREPE Ltda.</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>377</v>
+        <v>350</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>23/10/2009</t>
+          <t>08/01/2010</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,15 +1879,15 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>250</v>
+        <v>377</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>15/10/2009</t>
+          <t>23/10/2009</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4108064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1935,7 +1935,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>23/09/2009</t>
+          <t>15/10/2009</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4108064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>MODIFICACION PRMS MPRMS- 94, SISTEMA METROPOLITANO DE AREAS VERDES DECLARATORIA DE UTILIDAD PUBLICA DE PARQUES INTERCOMUNALES Exp 88/09 (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1970,30 +1970,30 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>27/08/2009</t>
+          <t>23/09/2009</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3998205&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Transporte de Residuos por las Rutas Indicadas (e-seia)</t>
+          <t>MODIFICACION PRMS MPRMS- 94, SISTEMA METROPOLITANO DE AREAS VERDES DECLARATORIA DE UTILIDAD PUBLICA DE PARQUES INTERCOMUNALES Exp 88/09 (e-seia)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2018,30 +2018,30 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Rafael Gonzalez Araya</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>10/07/2009</t>
+          <t>27/08/2009</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873705&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3998205&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>transporte de residuos por las rutas indicadas (e-seia)</t>
+          <t>Transporte de Residuos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2079,17 +2079,17 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>16/06/2009</t>
+          <t>10/07/2009</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3844974&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873705&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>transporte de residuos por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,15 +2119,15 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Rafael Gonzalez Araya</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>22</v>
+        <v>800</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>16/06/2009</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3844974&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>SISTEMA AMÉRICO VESPUCIO SUR (RUTA 78 AVENIDA GRECIA) (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2162,30 +2162,30 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>746318</v>
+        <v>22</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>26/12/2008</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3452659&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>SISTEMA AMÉRICO VESPUCIO SUR (RUTA 78 AVENIDA GRECIA) (e-seia)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,15 +2215,15 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>746318</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>04/12/2008</t>
+          <t>26/12/2008</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3452659&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2271,17 +2271,17 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>26/11/2008</t>
+          <t>04/12/2008</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2306,30 +2306,30 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>26/11/2008</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,25 +2359,25 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1750</v>
+        <v>300</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>29/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,25 +2407,25 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>300</v>
+        <v>1750</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>29/10/2008</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,11 +2455,11 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2468,12 +2468,12 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2511,7 +2511,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,25 +2551,25 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1750</v>
+        <v>250</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>30/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,25 +2599,25 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>20</v>
+        <v>1750</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>16/09/2008</t>
+          <t>30/09/2008</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2642,20 +2642,20 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>09/09/2008</t>
+          <t>16/09/2008</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2690,16 +2690,16 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2708,12 +2708,12 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,15 +2743,15 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>250</v>
+        <v>1750</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>09/09/2008</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2786,30 +2786,30 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2847,17 +2847,17 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>01/08/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3060358&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2882,30 +2882,30 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>28/07/2008</t>
+          <t>01/08/2008</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3066713&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3060358&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2943,17 +2943,17 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>14/07/2008</t>
+          <t>28/07/2008</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3066713&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,15 +2983,15 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>11/07/2008</t>
+          <t>14/07/2008</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964987&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,25 +3031,25 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Víctor Martínez Salcedo</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>03/07/2008</t>
+          <t>11/07/2008</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964987&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,25 +3079,25 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Víctor Martínez Salcedo</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>18/06/2008</t>
+          <t>03/07/2008</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2981711&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,25 +3127,25 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>10/06/2008</t>
+          <t>18/06/2008</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2981711&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Tratamiento insitu de Residuos Lumínicos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3170,20 +3170,20 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>03/03/2008</t>
+          <t>10/06/2008</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2739624&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Tratamiento insitu de Residuos Lumínicos (e-seia)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3218,30 +3218,30 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>31/01/2008</t>
+          <t>03/03/2008</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2679535&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2739624&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,25 +3271,25 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>29/01/2008</t>
+          <t>31/01/2008</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2679535&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Transporte de Propano en Situaciones de Emergencia desde Maipú a Peñalolén (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3314,20 +3314,20 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Gasmar SpA.</t>
+          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>28/01/2008</t>
+          <t>29/01/2008</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3337,7 +3337,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2672558&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Propano en Situaciones de Emergencia desde Maipú a Peñalolén (e-seia)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3362,20 +3362,20 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Gasmar SpA.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>26/12/2007</t>
+          <t>28/01/2008</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3385,7 +3385,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2672558&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3410,30 +3410,30 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>234</v>
+        <v>30</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>13/11/2007</t>
+          <t>26/12/2007</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3458,30 +3458,30 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>429</v>
+        <v>234</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>13/11/2007</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,25 +3511,25 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>234</v>
+        <v>429</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,25 +3559,25 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>20/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,25 +3607,25 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>20/09/2007</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,25 +3655,25 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>23/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
+          <t>Transporte de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,25 +3703,25 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>13/08/2007</t>
+          <t>23/08/2007</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2316323&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3759,17 +3759,17 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>20/07/2007</t>
+          <t>13/08/2007</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2268868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2316323&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,15 +3799,15 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>300</v>
+        <v>210</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>20/07/2007</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2268868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3847,25 +3847,25 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>13/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3895,25 +3895,25 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>13/06/2007</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,25 +3943,25 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>210</v>
+        <v>1</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>20/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,15 +3991,15 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>500</v>
+        <v>210</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>20/02/2007</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -4009,7 +4009,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Proyecto MPRMS 41 - AB "Modificación de Proyecto MPRMS 41 - A Extracción y procesamiento de Áridos" (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4034,16 +4034,16 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -4057,7 +4057,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986281&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Proyecto MPRMS 41 - AB "Modificación de Proyecto MPRMS 41 - A Extracción y procesamiento de Áridos" (e-seia)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4082,30 +4082,30 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986281&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4143,17 +4143,17 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,25 +4183,25 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4231,25 +4231,25 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>07/12/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,15 +4279,15 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Prodelin Ltda.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>06/11/2006</t>
+          <t>07/12/2006</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -4297,7 +4297,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4327,7 +4327,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Prodelin Ltda.</t>
         </is>
       </c>
       <c r="F83" t="n">
@@ -4335,7 +4335,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>12/10/2006</t>
+          <t>06/11/2006</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,15 +4375,15 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>12/10/2006</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -4393,7 +4393,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4431,17 +4431,17 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,25 +4471,25 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>72</v>
+        <v>500</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4519,7 +4519,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F87" t="n">
@@ -4527,17 +4527,17 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>MPRMS 52 TEXTO REFUNDIDO, AJUSTADO Y SISTEMATIZADO DE LA ORDENANAZA DEL PRMS Modificación MPRMS 52 Texto Refundido (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4562,20 +4562,20 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>07/12/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -4585,7 +4585,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142401&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
+          <t>MPRMS 52 TEXTO REFUNDIDO, AJUSTADO Y SISTEMATIZADO DE LA ORDENANAZA DEL PRMS Modificación MPRMS 52 Texto Refundido (e-seia)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4610,30 +4610,30 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>3517</v>
+        <v>0</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>15/11/2005</t>
+          <t>07/12/2005</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142401&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4663,15 +4663,15 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>160</v>
+        <v>3517</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>15/11/2005</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4711,15 +4711,15 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4759,11 +4759,11 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -4777,7 +4777,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4807,11 +4807,11 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>PROYECTO PLANTA DE TRATAMIENTO DE RILES GENERADOS POR LA GALVANOPLASTÍA NELSON ROBERTO OSSES LEYTON Galvanoplastía Roberto Osses (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4850,20 +4850,20 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Nelson Roberto Osses Leyton</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>4</v>
+        <v>200</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>30/06/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -4873,7 +4873,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=907239&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>PROYECTO PLANTA DE TRATAMIENTO DE RILES GENERADOS POR LA GALVANOPLASTÍA NELSON ROBERTO OSSES LEYTON Galvanoplastía Roberto Osses (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4898,20 +4898,20 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>Nelson Roberto Osses Leyton</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>200</v>
+        <v>4</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>05/05/2005</t>
+          <t>30/06/2005</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=907239&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4951,15 +4951,15 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>855</v>
+        <v>200</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>19/04/2005</t>
+          <t>05/05/2005</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -4969,7 +4969,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4999,7 +4999,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F97" t="n">
@@ -5007,17 +5007,17 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>31/03/2005</t>
+          <t>19/04/2005</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5047,15 +5047,15 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>200</v>
+        <v>855</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>09/03/2005</t>
+          <t>31/03/2005</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -5065,7 +5065,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN MPRMS-87 "Plantas de Compostaje de Residuos Orgánicos" (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5090,30 +5090,30 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>24/02/2005</t>
+          <t>09/03/2005</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=610415&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MODIFICACIÓN MPRMS-87 "Plantas de Compostaje de Residuos Orgánicos" (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5151,17 +5151,17 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>24/12/2004</t>
+          <t>24/02/2005</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=610415&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5204,12 +5204,12 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>PROYECTO PLANTA DE TRATAMIENTO DE RILES GENERADOS POR LA GALVANOPLASTÍA (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5239,25 +5239,25 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Cromometal</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>18/11/2004</t>
+          <t>24/12/2004</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=508253&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>PROYECTO DE INVESTIGACIÓN PLANTA DE TRATAMIENTO DE RILES GENERADOS POR LA GALVANOPLASTÍA ROBERTO OSSES LEYTON (e-seia)</t>
+          <t>PROYECTO PLANTA DE TRATAMIENTO DE RILES GENERADOS POR LA GALVANOPLASTÍA (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5291,11 +5291,11 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>28/10/2004</t>
+          <t>18/11/2004</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -5305,7 +5305,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=492322&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=508253&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
+          <t>PROYECTO DE INVESTIGACIÓN PLANTA DE TRATAMIENTO DE RILES GENERADOS POR LA GALVANOPLASTÍA ROBERTO OSSES LEYTON (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5330,12 +5330,12 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Cromometal</t>
         </is>
       </c>
       <c r="F104" t="n">
@@ -5343,17 +5343,17 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>09/08/2004</t>
+          <t>28/10/2004</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=492322&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Proyecto Tratamiento de RILES generada por la galvanoplastia Nelson Roberto Osses Leyton (e-seia)</t>
+          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5378,30 +5378,30 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Cromometal</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>21/06/2004</t>
+          <t>09/08/2004</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=385679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Proyecto de Modificación del PRMS, MPRMS 41-A Extracción y Procesamiento de Aridos (e-seia)</t>
+          <t>Proyecto Tratamiento de RILES generada por la galvanoplastia Nelson Roberto Osses Leyton (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5431,25 +5431,25 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Cromometal</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>23/01/2004</t>
+          <t>21/06/2004</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=258474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=385679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Estaciones e Interestaciones Tramo Vicuña Mackenna-La Cisterna</t>
+          <t>Proyecto de Modificación del PRMS, MPRMS 41-A Extracción y Procesamiento de Aridos (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5479,15 +5479,15 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>EMPRESA DE TRANSPORTE DE PASAJEROS METRO S.A.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>29000</v>
+        <v>0</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>16/12/2002</t>
+          <t>23/01/2004</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -5497,7 +5497,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6110&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=258474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Modificación PRMS - 68 Areas de peligro aviario</t>
+          <t>Estaciones e Interestaciones Tramo Vicuña Mackenna-La Cisterna</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5527,15 +5527,15 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>EMPRESA DE TRANSPORTE DE PASAJEROS METRO S.A.</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>0</v>
+        <v>29000</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>30/09/2002</t>
+          <t>16/12/2002</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -5545,7 +5545,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5946&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6110&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Tratamiento de Residuos Industriales Mediante Encapsulación con PEBD</t>
+          <t>Modificación PRMS - 68 Areas de peligro aviario</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5575,15 +5575,15 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Sello Verde Ingeniería Ambiental S.A.</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>20/06/2002</t>
+          <t>30/09/2002</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -5593,7 +5593,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5552&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5946&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Estación de Servicio ESSO Av. A. Vespucio Nº 1460, comuna de San Ramón (e-seia)</t>
+          <t>Tratamiento de Residuos Industriales Mediante Encapsulación con PEBD</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5623,15 +5623,15 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>ESSO Chile Petrolera Ltda.</t>
+          <t>Sello Verde Ingeniería Ambiental S.A.</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>31/10/2001</t>
+          <t>20/06/2002</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -5641,7 +5641,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=10301&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5552&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Metropolitano de Santiago PRMS-38 Modifica artículo 4.4 Densidades Planes Reguladores Comunales.</t>
+          <t>Estación de Servicio ESSO Av. A. Vespucio Nº 1460, comuna de San Ramón (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5671,15 +5671,15 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>ESSO Chile Petrolera Ltda.</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>05/10/2001</t>
+          <t>31/10/2001</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -5689,7 +5689,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4493&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=10301&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Metropolitano de Santiago MPRMS-34 Superposición de Normas</t>
+          <t>Modificación Plan Regulador Metropolitano de Santiago PRMS-38 Modifica artículo 4.4 Densidades Planes Reguladores Comunales.</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5727,7 +5727,7 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>06/06/2001</t>
+          <t>05/10/2001</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -5737,7 +5737,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4105&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4493&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,30 +5752,30 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Ampliación Planta Procesan: Transporte Tratamiento y Eliminación de Residuos Biopeligrosos y Farmacológicos</t>
+          <t>Modificación Plan Regulador Metropolitano de Santiago MPRMS-34 Superposición de Normas</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>1230</v>
+        <v>0</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>28/05/2001</t>
+          <t>06/06/2001</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -5785,7 +5785,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3942&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4105&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,30 +5800,30 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Sistema Metropolitano de Areas Verdes y Recreación</t>
+          <t>Ampliación Planta Procesan: Transporte Tratamiento y Eliminación de Residuos Biopeligrosos y Farmacológicos</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>0</v>
+        <v>1230</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>13/03/2001</t>
+          <t>28/05/2001</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -5833,7 +5833,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3736&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3942&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Viviendas con Subsidios Habitacionales del Estado - MPRMS 44</t>
+          <t>Sistema Metropolitano de Areas Verdes y Recreación</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5871,20 +5871,68 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
+          <t>13/03/2001</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3736&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>San Ramón</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Viviendas con Subsidios Habitacionales del Estado - MPRMS 44</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>RM</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+        </is>
+      </c>
+      <c r="F116" t="n">
+        <v>0</v>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
           <t>02/03/2001</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
+      <c r="H116" t="inlineStr">
         <is>
           <t>Desistido</t>
         </is>
       </c>
-      <c r="I115" t="inlineStr">
+      <c r="I116" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3666&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J115" t="inlineStr">
+      <c r="J116" t="inlineStr">
         <is>
           <t>San Ramón</t>
         </is>

--- a/data/San Ramón.xlsx
+++ b/data/San Ramón.xlsx
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,11 +2455,11 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2468,12 +2468,12 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,11 +2503,11 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2516,12 +2516,12 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5204,12 +5204,12 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5252,12 +5252,12 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">

--- a/data/San Ramón.xlsx
+++ b/data/San Ramón.xlsx
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,11 +2455,11 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2468,12 +2468,12 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,11 +2503,11 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2516,12 +2516,12 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5204,12 +5204,12 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5252,12 +5252,12 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">

--- a/data/San Ramón.xlsx
+++ b/data/San Ramón.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>31/10/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
